--- a/Container With Most Water/Whiteboards/Solution.xlsx
+++ b/Container With Most Water/Whiteboards/Solution.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\Longest Palindromic Substring\Whiteboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\Container With Most Water\Whiteboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DFE340-9EA5-43EC-9B8B-09BBE60FCC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7725F115-9FEE-4114-9034-83BD6234ED8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,6 +35,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>o(n)</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -45,15 +57,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,20 +85,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -384,17 +447,5382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CF585D-CE06-44D4-80AA-070156E711E0}">
-  <dimension ref="A1"/>
+  <dimension ref="M7:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="B10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="4.7109375" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="13:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2">
+        <v>4</v>
+      </c>
+      <c r="U7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="13:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>3</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4</v>
+      </c>
+      <c r="T8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="13:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="13:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="13:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <v>4</v>
+      </c>
+      <c r="N11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="13:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="13:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="13:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="13:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2</v>
+      </c>
+      <c r="S16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="13:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="3">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3">
+        <v>8</v>
+      </c>
+      <c r="R17" s="1">
+        <v>7</v>
+      </c>
+      <c r="S17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="13:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1">
+        <v>6</v>
+      </c>
+      <c r="R18" s="1">
+        <v>9</v>
+      </c>
+      <c r="S18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="13:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <v>4</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3</v>
+      </c>
+      <c r="S19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="13:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
+      <c r="R20" s="1">
+        <v>5</v>
+      </c>
+      <c r="S20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="13:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <v>6</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4</v>
+      </c>
+      <c r="R21" s="1">
+        <v>6</v>
+      </c>
+      <c r="S21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="13:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <v>7</v>
+      </c>
+      <c r="N22" s="1">
+        <v>8</v>
+      </c>
+      <c r="R22" s="1">
+        <v>8</v>
+      </c>
+      <c r="S22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="13:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <v>8</v>
+      </c>
+      <c r="N23" s="1">
+        <v>3</v>
+      </c>
+      <c r="R23" s="1">
+        <v>4</v>
+      </c>
+      <c r="S23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="13:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="3">
+        <v>9</v>
+      </c>
+      <c r="N24" s="3">
+        <v>7</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P16:Q24">
+    <sortCondition descending="1" ref="P16:P24"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AA3676-BAE5-481A-8D15-D0A5A68F93E9}">
+  <dimension ref="A1:AV45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X39" sqref="A39:X45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="4.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f t="shared" ref="B1:Q12" si="0">IF(B$21&gt;=$A1,1,"")</f>
+        <v/>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q1" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R1" s="1" t="str">
+        <f t="shared" ref="I1:R12" si="1">IF(R$21&gt;=$A1,1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R2" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f t="shared" ref="I5:V20" si="2">IF(S$21&gt;=$A5,1,"")</f>
+        <v/>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f t="shared" ref="B5:Q20" si="3">IF(B$21&gt;=$A13,1,"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <f>IF(B$21&gt;=$A20,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="U20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="V20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:40" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>6</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4">
+        <v>4</v>
+      </c>
+      <c r="N21" s="4">
+        <v>8</v>
+      </c>
+      <c r="P21" s="4">
+        <v>3</v>
+      </c>
+      <c r="R21" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>6</v>
+      </c>
+      <c r="N22" s="1">
+        <v>7</v>
+      </c>
+      <c r="P22" s="1">
+        <v>8</v>
+      </c>
+      <c r="R22" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f t="shared" ref="B24:Q42" si="4">IF(B$44&gt;=$A24,1,"")</f>
+        <v/>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R24" s="1" t="str">
+        <f t="shared" ref="R24:AG42" si="5">IF(R$44&gt;=$A24,1,"")</f>
+        <v/>
+      </c>
+      <c r="S24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH24" s="1" t="str">
+        <f t="shared" ref="AH24:AN42" si="6">IF(AH$44&gt;=$A24,1,"")</f>
+        <v/>
+      </c>
+      <c r="AI24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG35" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG36" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q39" s="1" t="str">
+        <f t="shared" ref="Q39:AF42" si="7">IF(Q$44&gt;=$A39,1,"")</f>
+        <v/>
+      </c>
+      <c r="R39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG39" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f t="shared" ref="B40:Q42" si="8">IF(B$44&gt;=$A40,1,"")</f>
+        <v/>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q40" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG40" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q41" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG41" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q42" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="R42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X42" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AE42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AF42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG42" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AH42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <f>IF(B$44&gt;=$A43,1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f t="shared" ref="C43:AN43" si="9">IF(C$44&gt;=$A43,1,"")</f>
+        <v/>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V43" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X43" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AE43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AF43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AG43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AH43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AI43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AJ43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AK43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AL43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AM43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AN43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
+        <v>4</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4">
+        <v>4</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4">
+        <v>1</v>
+      </c>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4">
+        <v>1</v>
+      </c>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4">
+        <v>1</v>
+      </c>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="4"/>
+      <c r="AO44" s="4"/>
+      <c r="AP44" s="4"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="4"/>
+      <c r="AT44" s="4"/>
+      <c r="AU44" s="4"/>
+      <c r="AV44" s="4"/>
+    </row>
+    <row r="45" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1">
+        <v>4</v>
+      </c>
+      <c r="J45" s="1">
+        <v>5</v>
+      </c>
+      <c r="L45" s="1">
+        <v>6</v>
+      </c>
+      <c r="N45" s="1">
+        <v>7</v>
+      </c>
+      <c r="P45" s="1">
+        <v>8</v>
+      </c>
+      <c r="R45" s="1">
+        <v>9</v>
+      </c>
+      <c r="T45" s="1">
+        <v>10</v>
+      </c>
+      <c r="V45" s="1">
+        <v>11</v>
+      </c>
+      <c r="X45" s="1">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:AK20">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:AN43">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Container With Most Water/Whiteboards/Solution.xlsx
+++ b/Container With Most Water/Whiteboards/Solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\Container With Most Water\Whiteboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7725F115-9FEE-4114-9034-83BD6234ED8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F142EFB-AAB3-4937-943D-3D5F231B6134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
   </bookViews>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>o(n)</t>
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>Fig3 calcs</t>
+  </si>
+  <si>
+    <t>maxIniClean</t>
   </si>
 </sst>
 </file>
@@ -694,10 +700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AA3676-BAE5-481A-8D15-D0A5A68F93E9}">
-  <dimension ref="A1:AV45"/>
+  <dimension ref="A1:AV49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X39" sqref="A39:X45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5811,6 +5817,60 @@
         <v>12</v>
       </c>
     </row>
+    <row r="46" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="1">
+        <v>92</v>
+      </c>
+      <c r="H47" s="1">
+        <f>E47-40</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4</v>
+      </c>
+      <c r="I48" s="1">
+        <v>5</v>
+      </c>
+      <c r="J48" s="1">
+        <v>6</v>
+      </c>
+      <c r="K48" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="1">
+        <v>20</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B1:AK20">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">

--- a/Container With Most Water/Whiteboards/Solution.xlsx
+++ b/Container With Most Water/Whiteboards/Solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\Container With Most Water\Whiteboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF010EAD-F8E4-4A8E-9351-61C5AFE272BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136F5913-B246-4A89-B4C1-B410501F9CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AA3676-BAE5-481A-8D15-D0A5A68F93E9}">
   <dimension ref="A1:AV59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2930,6 +2930,22 @@
     </row>
     <row r="25" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
+      <c r="B25" s="1">
+        <f>ABS(B29-B27)*MIN(B28,B26)</f>
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:E25" si="5">ABS(C29-C27)*MIN(C28,C26)</f>
+        <v>49</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
@@ -3039,17 +3055,17 @@
         <f>IF(E$49&gt;=$A31,1,"")</f>
         <v/>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="F31" s="1">
         <f>IF(F$49&gt;=$A31,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G31" s="1" t="str">
         <f>IF(G$49&gt;=$A31,1,"")</f>
         <v/>
       </c>
-      <c r="H31" s="1" t="str">
+      <c r="H31" s="1">
         <f>IF(H$49&gt;=$A31,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>IF(I$49&gt;=$A31,1,"")</f>
@@ -3079,33 +3095,33 @@
         <f>IF(O$49&gt;=$A31,1,"")</f>
         <v/>
       </c>
-      <c r="P31" s="1" t="str">
+      <c r="P31" s="1">
         <f>IF(P$49&gt;=$A31,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q31" s="1" t="str">
         <f>IF(Q$49&gt;=$A31,1,"")</f>
         <v/>
       </c>
-      <c r="R31" s="1" t="str">
+      <c r="R31" s="1">
         <f>IF(R$49&gt;=$A31,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S31" s="1" t="str">
         <f>IF(S$49&gt;=$A31,1,"")</f>
         <v/>
       </c>
-      <c r="T31" s="1" t="str">
+      <c r="T31" s="1">
         <f>IF(T$49&gt;=$A31,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="U31" s="1" t="str">
         <f>IF(U$49&gt;=$A31,1,"")</f>
         <v/>
       </c>
-      <c r="V31" s="1" t="str">
+      <c r="V31" s="1">
         <f>IF(V$49&gt;=$A31,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W31" s="1" t="str">
         <f>IF(W$49&gt;=$A31,1,"")</f>
@@ -3200,17 +3216,17 @@
         <f>IF(E$49&gt;=$A32,1,"")</f>
         <v/>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="F32" s="1">
         <f>IF(F$49&gt;=$A32,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G32" s="1" t="str">
         <f>IF(G$49&gt;=$A32,1,"")</f>
         <v/>
       </c>
-      <c r="H32" s="1" t="str">
+      <c r="H32" s="1">
         <f>IF(H$49&gt;=$A32,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I32" s="1" t="str">
         <f>IF(I$49&gt;=$A32,1,"")</f>
@@ -3240,33 +3256,33 @@
         <f>IF(O$49&gt;=$A32,1,"")</f>
         <v/>
       </c>
-      <c r="P32" s="1" t="str">
+      <c r="P32" s="1">
         <f>IF(P$49&gt;=$A32,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q32" s="1" t="str">
         <f>IF(Q$49&gt;=$A32,1,"")</f>
         <v/>
       </c>
-      <c r="R32" s="1" t="str">
+      <c r="R32" s="1">
         <f>IF(R$49&gt;=$A32,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S32" s="1" t="str">
         <f>IF(S$49&gt;=$A32,1,"")</f>
         <v/>
       </c>
-      <c r="T32" s="1" t="str">
+      <c r="T32" s="1">
         <f>IF(T$49&gt;=$A32,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="U32" s="1" t="str">
         <f>IF(U$49&gt;=$A32,1,"")</f>
         <v/>
       </c>
-      <c r="V32" s="1" t="str">
+      <c r="V32" s="1">
         <f>IF(V$49&gt;=$A32,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W32" s="1" t="str">
         <f>IF(W$49&gt;=$A32,1,"")</f>
@@ -3361,17 +3377,17 @@
         <f>IF(E$49&gt;=$A33,1,"")</f>
         <v/>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="F33" s="1">
         <f>IF(F$49&gt;=$A33,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G33" s="1" t="str">
         <f>IF(G$49&gt;=$A33,1,"")</f>
         <v/>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="H33" s="1">
         <f>IF(H$49&gt;=$A33,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>IF(I$49&gt;=$A33,1,"")</f>
@@ -3401,33 +3417,33 @@
         <f>IF(O$49&gt;=$A33,1,"")</f>
         <v/>
       </c>
-      <c r="P33" s="1" t="str">
+      <c r="P33" s="1">
         <f>IF(P$49&gt;=$A33,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q33" s="1" t="str">
         <f>IF(Q$49&gt;=$A33,1,"")</f>
         <v/>
       </c>
-      <c r="R33" s="1" t="str">
+      <c r="R33" s="1">
         <f>IF(R$49&gt;=$A33,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S33" s="1" t="str">
         <f>IF(S$49&gt;=$A33,1,"")</f>
         <v/>
       </c>
-      <c r="T33" s="1" t="str">
+      <c r="T33" s="1">
         <f>IF(T$49&gt;=$A33,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="U33" s="1" t="str">
         <f>IF(U$49&gt;=$A33,1,"")</f>
         <v/>
       </c>
-      <c r="V33" s="1" t="str">
+      <c r="V33" s="1">
         <f>IF(V$49&gt;=$A33,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W33" s="1" t="str">
         <f>IF(W$49&gt;=$A33,1,"")</f>
@@ -3522,17 +3538,17 @@
         <f>IF(E$49&gt;=$A34,1,"")</f>
         <v/>
       </c>
-      <c r="F34" s="1" t="str">
+      <c r="F34" s="1">
         <f>IF(F$49&gt;=$A34,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G34" s="1" t="str">
         <f>IF(G$49&gt;=$A34,1,"")</f>
         <v/>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="H34" s="1">
         <f>IF(H$49&gt;=$A34,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>IF(I$49&gt;=$A34,1,"")</f>
@@ -3562,33 +3578,33 @@
         <f>IF(O$49&gt;=$A34,1,"")</f>
         <v/>
       </c>
-      <c r="P34" s="1" t="str">
+      <c r="P34" s="1">
         <f>IF(P$49&gt;=$A34,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q34" s="1" t="str">
         <f>IF(Q$49&gt;=$A34,1,"")</f>
         <v/>
       </c>
-      <c r="R34" s="1" t="str">
+      <c r="R34" s="1">
         <f>IF(R$49&gt;=$A34,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S34" s="1" t="str">
         <f>IF(S$49&gt;=$A34,1,"")</f>
         <v/>
       </c>
-      <c r="T34" s="1" t="str">
+      <c r="T34" s="1">
         <f>IF(T$49&gt;=$A34,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="U34" s="1" t="str">
         <f>IF(U$49&gt;=$A34,1,"")</f>
         <v/>
       </c>
-      <c r="V34" s="1" t="str">
+      <c r="V34" s="1">
         <f>IF(V$49&gt;=$A34,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W34" s="1" t="str">
         <f>IF(W$49&gt;=$A34,1,"")</f>
@@ -3683,17 +3699,17 @@
         <f>IF(E$49&gt;=$A35,1,"")</f>
         <v/>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="F35" s="1">
         <f>IF(F$49&gt;=$A35,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G35" s="1" t="str">
         <f>IF(G$49&gt;=$A35,1,"")</f>
         <v/>
       </c>
-      <c r="H35" s="1" t="str">
+      <c r="H35" s="1">
         <f>IF(H$49&gt;=$A35,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>IF(I$49&gt;=$A35,1,"")</f>
@@ -3723,33 +3739,33 @@
         <f>IF(O$49&gt;=$A35,1,"")</f>
         <v/>
       </c>
-      <c r="P35" s="1" t="str">
+      <c r="P35" s="1">
         <f>IF(P$49&gt;=$A35,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q35" s="1" t="str">
         <f>IF(Q$49&gt;=$A35,1,"")</f>
         <v/>
       </c>
-      <c r="R35" s="1" t="str">
+      <c r="R35" s="1">
         <f>IF(R$49&gt;=$A35,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S35" s="1" t="str">
         <f>IF(S$49&gt;=$A35,1,"")</f>
         <v/>
       </c>
-      <c r="T35" s="1" t="str">
+      <c r="T35" s="1">
         <f>IF(T$49&gt;=$A35,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="U35" s="1" t="str">
         <f>IF(U$49&gt;=$A35,1,"")</f>
         <v/>
       </c>
-      <c r="V35" s="1" t="str">
+      <c r="V35" s="1">
         <f>IF(V$49&gt;=$A35,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W35" s="1" t="str">
         <f>IF(W$49&gt;=$A35,1,"")</f>
@@ -3844,17 +3860,17 @@
         <f>IF(E$49&gt;=$A36,1,"")</f>
         <v/>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="F36" s="1">
         <f>IF(F$49&gt;=$A36,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G36" s="1" t="str">
         <f>IF(G$49&gt;=$A36,1,"")</f>
         <v/>
       </c>
-      <c r="H36" s="1" t="str">
+      <c r="H36" s="1">
         <f>IF(H$49&gt;=$A36,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I36" s="1" t="str">
         <f>IF(I$49&gt;=$A36,1,"")</f>
@@ -3884,33 +3900,33 @@
         <f>IF(O$49&gt;=$A36,1,"")</f>
         <v/>
       </c>
-      <c r="P36" s="1" t="str">
+      <c r="P36" s="1">
         <f>IF(P$49&gt;=$A36,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q36" s="1" t="str">
         <f>IF(Q$49&gt;=$A36,1,"")</f>
         <v/>
       </c>
-      <c r="R36" s="1" t="str">
+      <c r="R36" s="1">
         <f>IF(R$49&gt;=$A36,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S36" s="1" t="str">
         <f>IF(S$49&gt;=$A36,1,"")</f>
         <v/>
       </c>
-      <c r="T36" s="1" t="str">
+      <c r="T36" s="1">
         <f>IF(T$49&gt;=$A36,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="U36" s="1" t="str">
         <f>IF(U$49&gt;=$A36,1,"")</f>
         <v/>
       </c>
-      <c r="V36" s="1" t="str">
+      <c r="V36" s="1">
         <f>IF(V$49&gt;=$A36,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W36" s="1" t="str">
         <f>IF(W$49&gt;=$A36,1,"")</f>
@@ -4005,17 +4021,17 @@
         <f>IF(E$49&gt;=$A37,1,"")</f>
         <v/>
       </c>
-      <c r="F37" s="1" t="str">
+      <c r="F37" s="1">
         <f>IF(F$49&gt;=$A37,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G37" s="1" t="str">
         <f>IF(G$49&gt;=$A37,1,"")</f>
         <v/>
       </c>
-      <c r="H37" s="1" t="str">
+      <c r="H37" s="1">
         <f>IF(H$49&gt;=$A37,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I37" s="1" t="str">
         <f>IF(I$49&gt;=$A37,1,"")</f>
@@ -4045,33 +4061,33 @@
         <f>IF(O$49&gt;=$A37,1,"")</f>
         <v/>
       </c>
-      <c r="P37" s="1" t="str">
+      <c r="P37" s="1">
         <f>IF(P$49&gt;=$A37,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q37" s="1" t="str">
         <f>IF(Q$49&gt;=$A37,1,"")</f>
         <v/>
       </c>
-      <c r="R37" s="1" t="str">
+      <c r="R37" s="1">
         <f>IF(R$49&gt;=$A37,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S37" s="1" t="str">
         <f>IF(S$49&gt;=$A37,1,"")</f>
         <v/>
       </c>
-      <c r="T37" s="1" t="str">
+      <c r="T37" s="1">
         <f>IF(T$49&gt;=$A37,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="U37" s="1" t="str">
         <f>IF(U$49&gt;=$A37,1,"")</f>
         <v/>
       </c>
-      <c r="V37" s="1" t="str">
+      <c r="V37" s="1">
         <f>IF(V$49&gt;=$A37,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W37" s="1" t="str">
         <f>IF(W$49&gt;=$A37,1,"")</f>
@@ -4166,17 +4182,17 @@
         <f>IF(E$49&gt;=$A38,1,"")</f>
         <v/>
       </c>
-      <c r="F38" s="1" t="str">
+      <c r="F38" s="1">
         <f>IF(F$49&gt;=$A38,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G38" s="1" t="str">
         <f>IF(G$49&gt;=$A38,1,"")</f>
         <v/>
       </c>
-      <c r="H38" s="1" t="str">
+      <c r="H38" s="1">
         <f>IF(H$49&gt;=$A38,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I38" s="1" t="str">
         <f>IF(I$49&gt;=$A38,1,"")</f>
@@ -4206,33 +4222,33 @@
         <f>IF(O$49&gt;=$A38,1,"")</f>
         <v/>
       </c>
-      <c r="P38" s="1" t="str">
+      <c r="P38" s="1">
         <f>IF(P$49&gt;=$A38,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q38" s="1" t="str">
         <f>IF(Q$49&gt;=$A38,1,"")</f>
         <v/>
       </c>
-      <c r="R38" s="1" t="str">
+      <c r="R38" s="1">
         <f>IF(R$49&gt;=$A38,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S38" s="1" t="str">
         <f>IF(S$49&gt;=$A38,1,"")</f>
         <v/>
       </c>
-      <c r="T38" s="1" t="str">
+      <c r="T38" s="1">
         <f>IF(T$49&gt;=$A38,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="U38" s="1" t="str">
         <f>IF(U$49&gt;=$A38,1,"")</f>
         <v/>
       </c>
-      <c r="V38" s="1" t="str">
+      <c r="V38" s="1">
         <f>IF(V$49&gt;=$A38,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W38" s="1" t="str">
         <f>IF(W$49&gt;=$A38,1,"")</f>
@@ -4327,17 +4343,17 @@
         <f>IF(E$49&gt;=$A39,1,"")</f>
         <v/>
       </c>
-      <c r="F39" s="1" t="str">
+      <c r="F39" s="1">
         <f>IF(F$49&gt;=$A39,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G39" s="1" t="str">
         <f>IF(G$49&gt;=$A39,1,"")</f>
         <v/>
       </c>
-      <c r="H39" s="1" t="str">
+      <c r="H39" s="1">
         <f>IF(H$49&gt;=$A39,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I39" s="1" t="str">
         <f>IF(I$49&gt;=$A39,1,"")</f>
@@ -4367,33 +4383,33 @@
         <f>IF(O$49&gt;=$A39,1,"")</f>
         <v/>
       </c>
-      <c r="P39" s="1" t="str">
+      <c r="P39" s="1">
         <f>IF(P$49&gt;=$A39,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q39" s="1" t="str">
         <f>IF(Q$49&gt;=$A39,1,"")</f>
         <v/>
       </c>
-      <c r="R39" s="1" t="str">
+      <c r="R39" s="1">
         <f>IF(R$49&gt;=$A39,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S39" s="1" t="str">
         <f>IF(S$49&gt;=$A39,1,"")</f>
         <v/>
       </c>
-      <c r="T39" s="1" t="str">
+      <c r="T39" s="1">
         <f>IF(T$49&gt;=$A39,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="U39" s="1" t="str">
         <f>IF(U$49&gt;=$A39,1,"")</f>
         <v/>
       </c>
-      <c r="V39" s="1" t="str">
+      <c r="V39" s="1">
         <f>IF(V$49&gt;=$A39,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W39" s="1" t="str">
         <f>IF(W$49&gt;=$A39,1,"")</f>
@@ -4488,17 +4504,17 @@
         <f>IF(E$49&gt;=$A40,1,"")</f>
         <v/>
       </c>
-      <c r="F40" s="1" t="str">
+      <c r="F40" s="1">
         <f>IF(F$49&gt;=$A40,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G40" s="1" t="str">
         <f>IF(G$49&gt;=$A40,1,"")</f>
         <v/>
       </c>
-      <c r="H40" s="1" t="str">
+      <c r="H40" s="1">
         <f>IF(H$49&gt;=$A40,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I40" s="1" t="str">
         <f>IF(I$49&gt;=$A40,1,"")</f>
@@ -4512,33 +4528,33 @@
         <f>IF(K$49&gt;=$A40,1,"")</f>
         <v/>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="1" t="str">
         <f>IF(L$49&gt;=$A40,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="M40" s="1" t="str">
         <f>IF(M$49&gt;=$A40,1,"")</f>
         <v/>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="1" t="str">
         <f>IF(N$49&gt;=$A40,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="O40" s="1" t="str">
         <f>IF(O$49&gt;=$A40,1,"")</f>
         <v/>
       </c>
-      <c r="P40" s="1" t="str">
+      <c r="P40" s="1">
         <f>IF(P$49&gt;=$A40,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q40" s="1" t="str">
         <f>IF(Q$49&gt;=$A40,1,"")</f>
         <v/>
       </c>
-      <c r="R40" s="1" t="str">
+      <c r="R40" s="1">
         <f>IF(R$49&gt;=$A40,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S40" s="1" t="str">
         <f>IF(S$49&gt;=$A40,1,"")</f>
@@ -4552,9 +4568,9 @@
         <f>IF(U$49&gt;=$A40,1,"")</f>
         <v/>
       </c>
-      <c r="V40" s="1" t="str">
+      <c r="V40" s="1">
         <f>IF(V$49&gt;=$A40,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W40" s="1" t="str">
         <f>IF(W$49&gt;=$A40,1,"")</f>
@@ -4649,17 +4665,17 @@
         <f>IF(E$49&gt;=$A41,1,"")</f>
         <v/>
       </c>
-      <c r="F41" s="1" t="str">
+      <c r="F41" s="1">
         <f>IF(F$49&gt;=$A41,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G41" s="1" t="str">
         <f>IF(G$49&gt;=$A41,1,"")</f>
         <v/>
       </c>
-      <c r="H41" s="1" t="str">
+      <c r="H41" s="1">
         <f>IF(H$49&gt;=$A41,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I41" s="1" t="str">
         <f>IF(I$49&gt;=$A41,1,"")</f>
@@ -4673,33 +4689,33 @@
         <f>IF(K$49&gt;=$A41,1,"")</f>
         <v/>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="1" t="str">
         <f>IF(L$49&gt;=$A41,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="M41" s="1" t="str">
         <f>IF(M$49&gt;=$A41,1,"")</f>
         <v/>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="1" t="str">
         <f>IF(N$49&gt;=$A41,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="O41" s="1" t="str">
         <f>IF(O$49&gt;=$A41,1,"")</f>
         <v/>
       </c>
-      <c r="P41" s="1" t="str">
+      <c r="P41" s="1">
         <f>IF(P$49&gt;=$A41,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q41" s="1" t="str">
         <f>IF(Q$49&gt;=$A41,1,"")</f>
         <v/>
       </c>
-      <c r="R41" s="1" t="str">
+      <c r="R41" s="1">
         <f>IF(R$49&gt;=$A41,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S41" s="1" t="str">
         <f>IF(S$49&gt;=$A41,1,"")</f>
@@ -4713,9 +4729,9 @@
         <f>IF(U$49&gt;=$A41,1,"")</f>
         <v/>
       </c>
-      <c r="V41" s="1" t="str">
+      <c r="V41" s="1">
         <f>IF(V$49&gt;=$A41,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W41" s="1" t="str">
         <f>IF(W$49&gt;=$A41,1,"")</f>
@@ -4810,17 +4826,17 @@
         <f>IF(E$49&gt;=$A42,1,"")</f>
         <v/>
       </c>
-      <c r="F42" s="1" t="str">
+      <c r="F42" s="1">
         <f>IF(F$49&gt;=$A42,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G42" s="1" t="str">
         <f>IF(G$49&gt;=$A42,1,"")</f>
         <v/>
       </c>
-      <c r="H42" s="1" t="str">
+      <c r="H42" s="1">
         <f>IF(H$49&gt;=$A42,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I42" s="1" t="str">
         <f>IF(I$49&gt;=$A42,1,"")</f>
@@ -4834,33 +4850,33 @@
         <f>IF(K$49&gt;=$A42,1,"")</f>
         <v/>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="1" t="str">
         <f>IF(L$49&gt;=$A42,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="M42" s="1" t="str">
         <f>IF(M$49&gt;=$A42,1,"")</f>
         <v/>
       </c>
-      <c r="N42" s="1">
+      <c r="N42" s="1" t="str">
         <f>IF(N$49&gt;=$A42,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="O42" s="1" t="str">
         <f>IF(O$49&gt;=$A42,1,"")</f>
         <v/>
       </c>
-      <c r="P42" s="1" t="str">
+      <c r="P42" s="1">
         <f>IF(P$49&gt;=$A42,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q42" s="1" t="str">
         <f>IF(Q$49&gt;=$A42,1,"")</f>
         <v/>
       </c>
-      <c r="R42" s="1" t="str">
+      <c r="R42" s="1">
         <f>IF(R$49&gt;=$A42,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S42" s="1" t="str">
         <f>IF(S$49&gt;=$A42,1,"")</f>
@@ -4874,9 +4890,9 @@
         <f>IF(U$49&gt;=$A42,1,"")</f>
         <v/>
       </c>
-      <c r="V42" s="1" t="str">
+      <c r="V42" s="1">
         <f>IF(V$49&gt;=$A42,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W42" s="1" t="str">
         <f>IF(W$49&gt;=$A42,1,"")</f>
@@ -4971,17 +4987,17 @@
         <f>IF(E$49&gt;=$A43,1,"")</f>
         <v/>
       </c>
-      <c r="F43" s="1" t="str">
+      <c r="F43" s="1">
         <f>IF(F$49&gt;=$A43,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G43" s="1" t="str">
         <f>IF(G$49&gt;=$A43,1,"")</f>
         <v/>
       </c>
-      <c r="H43" s="1" t="str">
+      <c r="H43" s="1">
         <f>IF(H$49&gt;=$A43,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I43" s="1" t="str">
         <f>IF(I$49&gt;=$A43,1,"")</f>
@@ -4995,33 +5011,33 @@
         <f>IF(K$49&gt;=$A43,1,"")</f>
         <v/>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="1" t="str">
         <f>IF(L$49&gt;=$A43,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="M43" s="1" t="str">
         <f>IF(M$49&gt;=$A43,1,"")</f>
         <v/>
       </c>
-      <c r="N43" s="1">
+      <c r="N43" s="1" t="str">
         <f>IF(N$49&gt;=$A43,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="O43" s="1" t="str">
         <f>IF(O$49&gt;=$A43,1,"")</f>
         <v/>
       </c>
-      <c r="P43" s="1" t="str">
+      <c r="P43" s="1">
         <f>IF(P$49&gt;=$A43,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q43" s="1" t="str">
         <f>IF(Q$49&gt;=$A43,1,"")</f>
         <v/>
       </c>
-      <c r="R43" s="1" t="str">
+      <c r="R43" s="1">
         <f>IF(R$49&gt;=$A43,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="S43" s="1" t="str">
         <f>IF(S$49&gt;=$A43,1,"")</f>
@@ -5035,9 +5051,9 @@
         <f>IF(U$49&gt;=$A43,1,"")</f>
         <v/>
       </c>
-      <c r="V43" s="1" t="str">
+      <c r="V43" s="1">
         <f>IF(V$49&gt;=$A43,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W43" s="1" t="str">
         <f>IF(W$49&gt;=$A43,1,"")</f>
@@ -5124,9 +5140,9 @@
         <f>IF(C$49&gt;=$A44,1,"")</f>
         <v/>
       </c>
-      <c r="D44" s="1" t="str">
+      <c r="D44" s="1">
         <f>IF(D$49&gt;=$A44,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E44" s="1" t="str">
         <f>IF(E$49&gt;=$A44,1,"")</f>
@@ -5140,9 +5156,9 @@
         <f>IF(G$49&gt;=$A44,1,"")</f>
         <v/>
       </c>
-      <c r="H44" s="1" t="str">
+      <c r="H44" s="1">
         <f>IF(H$49&gt;=$A44,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I44" s="1" t="str">
         <f>IF(I$49&gt;=$A44,1,"")</f>
@@ -5156,88 +5172,88 @@
         <f>IF(K$49&gt;=$A44,1,"")</f>
         <v/>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="1" t="str">
         <f>IF(L$49&gt;=$A44,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="M44" s="1" t="str">
         <f>IF(M$49&gt;=$A44,1,"")</f>
         <v/>
       </c>
-      <c r="N44" s="1">
+      <c r="N44" s="1" t="str">
         <f>IF(N$49&gt;=$A44,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="O44" s="1" t="str">
         <f>IF(O$49&gt;=$A44,1,"")</f>
         <v/>
       </c>
-      <c r="P44" s="1" t="str">
+      <c r="P44" s="1">
         <f>IF(P$49&gt;=$A44,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q44" s="1" t="str">
-        <f t="shared" ref="Q44:AF47" si="5">IF(Q$49&gt;=$A44,1,"")</f>
-        <v/>
-      </c>
-      <c r="R44" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" ref="Q44:AF47" si="6">IF(Q$49&gt;=$A44,1,"")</f>
+        <v/>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="S44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="W44" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="X44" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X44" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="Y44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Z44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AA44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AB44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AE44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AF44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AG44" s="1" t="str">
@@ -5278,127 +5294,127 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f t="shared" ref="B45:Q47" si="6">IF(B$49&gt;=$A45,1,"")</f>
+        <f t="shared" ref="B45:Q47" si="7">IF(B$49&gt;=$A45,1,"")</f>
         <v/>
       </c>
       <c r="C45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R45" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D45" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E45" s="1" t="str">
+      <c r="T45" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="U45" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="V45" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="I45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="X45" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J45" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K45" s="1" t="str">
+      <c r="Z45" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L45" s="1">
+      <c r="AA45" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AB45" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N45" s="1">
+      <c r="AC45" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O45" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AD45" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P45" s="1" t="str">
+      <c r="AE45" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q45" s="1" t="str">
+      <c r="AF45" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T45" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="V45" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="W45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="X45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Z45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AA45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AB45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AC45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AD45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AE45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AF45" s="1" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG45" s="1" t="str">
@@ -5439,127 +5455,127 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R46" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="C46" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D46" s="1" t="str">
+      <c r="T46" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E46" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="U46" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F46" s="1">
+      <c r="V46" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G46" s="1" t="str">
+      <c r="W46" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H46" s="1">
+      <c r="X46" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I46" s="1" t="str">
+      <c r="Y46" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J46" s="1" t="str">
+      <c r="Z46" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K46" s="1" t="str">
+      <c r="AA46" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L46" s="1">
+      <c r="AB46" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AC46" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N46" s="1">
+      <c r="AD46" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O46" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE46" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P46" s="1" t="str">
+      <c r="AF46" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q46" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T46" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="V46" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="W46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="X46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Y46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Z46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AA46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AB46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AC46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AD46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AE46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AF46" s="1" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG46" s="1" t="str">
@@ -5599,128 +5615,128 @@
       <c r="A47" s="1">
         <v>2</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R47" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="str">
+      <c r="S47" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D47" s="1" t="str">
+      <c r="T47" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E47" s="1" t="str">
+        <v>1</v>
+      </c>
+      <c r="U47" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F47" s="1">
+      <c r="V47" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G47" s="1" t="str">
+      <c r="W47" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H47" s="1">
+      <c r="X47" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I47" s="1" t="str">
+      <c r="Y47" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J47" s="1" t="str">
+      <c r="Z47" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K47" s="1" t="str">
+      <c r="AA47" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L47" s="1">
+      <c r="AB47" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AC47" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N47" s="1">
+      <c r="AD47" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="O47" s="1" t="str">
+        <v/>
+      </c>
+      <c r="AE47" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P47" s="1" t="str">
+      <c r="AF47" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q47" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="S47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="T47" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="V47" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="W47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="X47" s="1">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Y47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Z47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AA47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AB47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AC47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AD47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AE47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="AF47" s="1" t="str">
-        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AG47" s="1" t="str">
@@ -5760,211 +5776,203 @@
       <c r="A48" s="1">
         <v>1</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="1" t="str">
         <f>IF(B$49&gt;=$A48,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C48" s="1" t="str">
-        <f t="shared" ref="C48:AN48" si="7">IF(C$49&gt;=$A48,1,"")</f>
+        <f t="shared" ref="C48:AN48" si="8">IF(C$49&gt;=$A48,1,"")</f>
         <v/>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J48" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J48" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="K48" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L48" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L48" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="M48" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N48" s="1">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N48" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="O48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="V48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="W48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Z48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AA48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AC48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AE48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AF48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AG48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AH48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AI48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AJ48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AK48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AL48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AN48" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="4">
-        <v>2</v>
-      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I49" s="4"/>
-      <c r="J49" s="4">
-        <v>1</v>
-      </c>
+      <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="4">
-        <v>9</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="4">
-        <v>9</v>
-      </c>
+      <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="S49" s="4"/>
       <c r="T49" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="W49" s="4"/>
       <c r="X49" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>

--- a/Container With Most Water/Whiteboards/Solution.xlsx
+++ b/Container With Most Water/Whiteboards/Solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\Container With Most Water\Whiteboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136F5913-B246-4A89-B4C1-B410501F9CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EB6BF3-8953-4271-8567-A89F771D88D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{756CC0B2-6BE7-4EF6-9EEE-182F71A93026}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AA3676-BAE5-481A-8D15-D0A5A68F93E9}">
   <dimension ref="A1:AV59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD32" sqref="AD32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2935,7 +2935,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:E25" si="5">ABS(C29-C27)*MIN(C28,C26)</f>
+        <f t="shared" ref="C25:I25" si="5">ABS(C29-C27)*MIN(C28,C26)</f>
         <v>49</v>
       </c>
       <c r="D25" s="1">
@@ -2945,6 +2945,22 @@
       <c r="E25" s="1">
         <f t="shared" si="5"/>
         <v>40</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -2967,6 +2983,18 @@
       <c r="E26" s="1">
         <v>8</v>
       </c>
+      <c r="F26" s="1">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -2988,6 +3016,18 @@
       <c r="E27" s="1">
         <v>2</v>
       </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>6</v>
+      </c>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
@@ -3009,6 +3049,18 @@
       <c r="E28" s="1">
         <v>8</v>
       </c>
+      <c r="F28" s="1">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1">
+        <v>8</v>
+      </c>
+      <c r="I28" s="1">
+        <v>8</v>
+      </c>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
@@ -3030,6 +3082,18 @@
       <c r="E29" s="1">
         <v>7</v>
       </c>
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7</v>
+      </c>
+      <c r="H29" s="1">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <v>7</v>
+      </c>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
@@ -3047,9 +3111,9 @@
         <f>IF(C$49&gt;=$A31,1,"")</f>
         <v/>
       </c>
-      <c r="D31" s="1" t="str">
+      <c r="D31" s="1">
         <f>IF(D$49&gt;=$A31,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>IF(E$49&gt;=$A31,1,"")</f>
@@ -3063,9 +3127,9 @@
         <f>IF(G$49&gt;=$A31,1,"")</f>
         <v/>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="1" t="str">
         <f>IF(H$49&gt;=$A31,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I31" s="1" t="str">
         <f>IF(I$49&gt;=$A31,1,"")</f>
@@ -3087,9 +3151,9 @@
         <f>IF(M$49&gt;=$A31,1,"")</f>
         <v/>
       </c>
-      <c r="N31" s="1" t="str">
+      <c r="N31" s="1">
         <f>IF(N$49&gt;=$A31,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O31" s="1" t="str">
         <f>IF(O$49&gt;=$A31,1,"")</f>
@@ -3119,9 +3183,9 @@
         <f>IF(U$49&gt;=$A31,1,"")</f>
         <v/>
       </c>
-      <c r="V31" s="1">
+      <c r="V31" s="1" t="str">
         <f>IF(V$49&gt;=$A31,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W31" s="1" t="str">
         <f>IF(W$49&gt;=$A31,1,"")</f>
@@ -3208,9 +3272,9 @@
         <f>IF(C$49&gt;=$A32,1,"")</f>
         <v/>
       </c>
-      <c r="D32" s="1" t="str">
+      <c r="D32" s="1">
         <f>IF(D$49&gt;=$A32,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="str">
         <f>IF(E$49&gt;=$A32,1,"")</f>
@@ -3224,9 +3288,9 @@
         <f>IF(G$49&gt;=$A32,1,"")</f>
         <v/>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="1" t="str">
         <f>IF(H$49&gt;=$A32,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I32" s="1" t="str">
         <f>IF(I$49&gt;=$A32,1,"")</f>
@@ -3248,9 +3312,9 @@
         <f>IF(M$49&gt;=$A32,1,"")</f>
         <v/>
       </c>
-      <c r="N32" s="1" t="str">
+      <c r="N32" s="1">
         <f>IF(N$49&gt;=$A32,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O32" s="1" t="str">
         <f>IF(O$49&gt;=$A32,1,"")</f>
@@ -3280,9 +3344,9 @@
         <f>IF(U$49&gt;=$A32,1,"")</f>
         <v/>
       </c>
-      <c r="V32" s="1">
+      <c r="V32" s="1" t="str">
         <f>IF(V$49&gt;=$A32,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W32" s="1" t="str">
         <f>IF(W$49&gt;=$A32,1,"")</f>
@@ -3369,9 +3433,9 @@
         <f>IF(C$49&gt;=$A33,1,"")</f>
         <v/>
       </c>
-      <c r="D33" s="1" t="str">
+      <c r="D33" s="1">
         <f>IF(D$49&gt;=$A33,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>IF(E$49&gt;=$A33,1,"")</f>
@@ -3385,9 +3449,9 @@
         <f>IF(G$49&gt;=$A33,1,"")</f>
         <v/>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="1" t="str">
         <f>IF(H$49&gt;=$A33,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I33" s="1" t="str">
         <f>IF(I$49&gt;=$A33,1,"")</f>
@@ -3409,9 +3473,9 @@
         <f>IF(M$49&gt;=$A33,1,"")</f>
         <v/>
       </c>
-      <c r="N33" s="1" t="str">
+      <c r="N33" s="1">
         <f>IF(N$49&gt;=$A33,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O33" s="1" t="str">
         <f>IF(O$49&gt;=$A33,1,"")</f>
@@ -3441,9 +3505,9 @@
         <f>IF(U$49&gt;=$A33,1,"")</f>
         <v/>
       </c>
-      <c r="V33" s="1">
+      <c r="V33" s="1" t="str">
         <f>IF(V$49&gt;=$A33,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W33" s="1" t="str">
         <f>IF(W$49&gt;=$A33,1,"")</f>
@@ -3530,9 +3594,9 @@
         <f>IF(C$49&gt;=$A34,1,"")</f>
         <v/>
       </c>
-      <c r="D34" s="1" t="str">
+      <c r="D34" s="1">
         <f>IF(D$49&gt;=$A34,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>IF(E$49&gt;=$A34,1,"")</f>
@@ -3546,9 +3610,9 @@
         <f>IF(G$49&gt;=$A34,1,"")</f>
         <v/>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="1" t="str">
         <f>IF(H$49&gt;=$A34,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I34" s="1" t="str">
         <f>IF(I$49&gt;=$A34,1,"")</f>
@@ -3570,9 +3634,9 @@
         <f>IF(M$49&gt;=$A34,1,"")</f>
         <v/>
       </c>
-      <c r="N34" s="1" t="str">
+      <c r="N34" s="1">
         <f>IF(N$49&gt;=$A34,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O34" s="1" t="str">
         <f>IF(O$49&gt;=$A34,1,"")</f>
@@ -3602,9 +3666,9 @@
         <f>IF(U$49&gt;=$A34,1,"")</f>
         <v/>
       </c>
-      <c r="V34" s="1">
+      <c r="V34" s="1" t="str">
         <f>IF(V$49&gt;=$A34,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W34" s="1" t="str">
         <f>IF(W$49&gt;=$A34,1,"")</f>
@@ -3691,9 +3755,9 @@
         <f>IF(C$49&gt;=$A35,1,"")</f>
         <v/>
       </c>
-      <c r="D35" s="1" t="str">
+      <c r="D35" s="1">
         <f>IF(D$49&gt;=$A35,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="str">
         <f>IF(E$49&gt;=$A35,1,"")</f>
@@ -3707,9 +3771,9 @@
         <f>IF(G$49&gt;=$A35,1,"")</f>
         <v/>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="1" t="str">
         <f>IF(H$49&gt;=$A35,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I35" s="1" t="str">
         <f>IF(I$49&gt;=$A35,1,"")</f>
@@ -3731,9 +3795,9 @@
         <f>IF(M$49&gt;=$A35,1,"")</f>
         <v/>
       </c>
-      <c r="N35" s="1" t="str">
+      <c r="N35" s="1">
         <f>IF(N$49&gt;=$A35,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O35" s="1" t="str">
         <f>IF(O$49&gt;=$A35,1,"")</f>
@@ -3763,9 +3827,9 @@
         <f>IF(U$49&gt;=$A35,1,"")</f>
         <v/>
       </c>
-      <c r="V35" s="1">
+      <c r="V35" s="1" t="str">
         <f>IF(V$49&gt;=$A35,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W35" s="1" t="str">
         <f>IF(W$49&gt;=$A35,1,"")</f>
@@ -3852,9 +3916,9 @@
         <f>IF(C$49&gt;=$A36,1,"")</f>
         <v/>
       </c>
-      <c r="D36" s="1" t="str">
+      <c r="D36" s="1">
         <f>IF(D$49&gt;=$A36,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="str">
         <f>IF(E$49&gt;=$A36,1,"")</f>
@@ -3868,9 +3932,9 @@
         <f>IF(G$49&gt;=$A36,1,"")</f>
         <v/>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="1" t="str">
         <f>IF(H$49&gt;=$A36,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I36" s="1" t="str">
         <f>IF(I$49&gt;=$A36,1,"")</f>
@@ -3892,9 +3956,9 @@
         <f>IF(M$49&gt;=$A36,1,"")</f>
         <v/>
       </c>
-      <c r="N36" s="1" t="str">
+      <c r="N36" s="1">
         <f>IF(N$49&gt;=$A36,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O36" s="1" t="str">
         <f>IF(O$49&gt;=$A36,1,"")</f>
@@ -3924,9 +3988,9 @@
         <f>IF(U$49&gt;=$A36,1,"")</f>
         <v/>
       </c>
-      <c r="V36" s="1">
+      <c r="V36" s="1" t="str">
         <f>IF(V$49&gt;=$A36,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W36" s="1" t="str">
         <f>IF(W$49&gt;=$A36,1,"")</f>
@@ -4013,9 +4077,9 @@
         <f>IF(C$49&gt;=$A37,1,"")</f>
         <v/>
       </c>
-      <c r="D37" s="1" t="str">
+      <c r="D37" s="1">
         <f>IF(D$49&gt;=$A37,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="str">
         <f>IF(E$49&gt;=$A37,1,"")</f>
@@ -4029,9 +4093,9 @@
         <f>IF(G$49&gt;=$A37,1,"")</f>
         <v/>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="1" t="str">
         <f>IF(H$49&gt;=$A37,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I37" s="1" t="str">
         <f>IF(I$49&gt;=$A37,1,"")</f>
@@ -4053,9 +4117,9 @@
         <f>IF(M$49&gt;=$A37,1,"")</f>
         <v/>
       </c>
-      <c r="N37" s="1" t="str">
+      <c r="N37" s="1">
         <f>IF(N$49&gt;=$A37,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O37" s="1" t="str">
         <f>IF(O$49&gt;=$A37,1,"")</f>
@@ -4085,9 +4149,9 @@
         <f>IF(U$49&gt;=$A37,1,"")</f>
         <v/>
       </c>
-      <c r="V37" s="1">
+      <c r="V37" s="1" t="str">
         <f>IF(V$49&gt;=$A37,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W37" s="1" t="str">
         <f>IF(W$49&gt;=$A37,1,"")</f>
@@ -4174,9 +4238,9 @@
         <f>IF(C$49&gt;=$A38,1,"")</f>
         <v/>
       </c>
-      <c r="D38" s="1" t="str">
+      <c r="D38" s="1">
         <f>IF(D$49&gt;=$A38,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="str">
         <f>IF(E$49&gt;=$A38,1,"")</f>
@@ -4190,9 +4254,9 @@
         <f>IF(G$49&gt;=$A38,1,"")</f>
         <v/>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="1" t="str">
         <f>IF(H$49&gt;=$A38,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I38" s="1" t="str">
         <f>IF(I$49&gt;=$A38,1,"")</f>
@@ -4214,9 +4278,9 @@
         <f>IF(M$49&gt;=$A38,1,"")</f>
         <v/>
       </c>
-      <c r="N38" s="1" t="str">
+      <c r="N38" s="1">
         <f>IF(N$49&gt;=$A38,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O38" s="1" t="str">
         <f>IF(O$49&gt;=$A38,1,"")</f>
@@ -4246,9 +4310,9 @@
         <f>IF(U$49&gt;=$A38,1,"")</f>
         <v/>
       </c>
-      <c r="V38" s="1">
+      <c r="V38" s="1" t="str">
         <f>IF(V$49&gt;=$A38,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W38" s="1" t="str">
         <f>IF(W$49&gt;=$A38,1,"")</f>
@@ -4335,9 +4399,9 @@
         <f>IF(C$49&gt;=$A39,1,"")</f>
         <v/>
       </c>
-      <c r="D39" s="1" t="str">
+      <c r="D39" s="1">
         <f>IF(D$49&gt;=$A39,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="str">
         <f>IF(E$49&gt;=$A39,1,"")</f>
@@ -4351,9 +4415,9 @@
         <f>IF(G$49&gt;=$A39,1,"")</f>
         <v/>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="1" t="str">
         <f>IF(H$49&gt;=$A39,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I39" s="1" t="str">
         <f>IF(I$49&gt;=$A39,1,"")</f>
@@ -4375,9 +4439,9 @@
         <f>IF(M$49&gt;=$A39,1,"")</f>
         <v/>
       </c>
-      <c r="N39" s="1" t="str">
+      <c r="N39" s="1">
         <f>IF(N$49&gt;=$A39,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O39" s="1" t="str">
         <f>IF(O$49&gt;=$A39,1,"")</f>
@@ -4407,9 +4471,9 @@
         <f>IF(U$49&gt;=$A39,1,"")</f>
         <v/>
       </c>
-      <c r="V39" s="1">
+      <c r="V39" s="1" t="str">
         <f>IF(V$49&gt;=$A39,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W39" s="1" t="str">
         <f>IF(W$49&gt;=$A39,1,"")</f>
@@ -4496,9 +4560,9 @@
         <f>IF(C$49&gt;=$A40,1,"")</f>
         <v/>
       </c>
-      <c r="D40" s="1" t="str">
+      <c r="D40" s="1">
         <f>IF(D$49&gt;=$A40,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E40" s="1" t="str">
         <f>IF(E$49&gt;=$A40,1,"")</f>
@@ -4512,9 +4576,9 @@
         <f>IF(G$49&gt;=$A40,1,"")</f>
         <v/>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="1" t="str">
         <f>IF(H$49&gt;=$A40,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I40" s="1" t="str">
         <f>IF(I$49&gt;=$A40,1,"")</f>
@@ -4536,9 +4600,9 @@
         <f>IF(M$49&gt;=$A40,1,"")</f>
         <v/>
       </c>
-      <c r="N40" s="1" t="str">
+      <c r="N40" s="1">
         <f>IF(N$49&gt;=$A40,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O40" s="1" t="str">
         <f>IF(O$49&gt;=$A40,1,"")</f>
@@ -4568,9 +4632,9 @@
         <f>IF(U$49&gt;=$A40,1,"")</f>
         <v/>
       </c>
-      <c r="V40" s="1">
+      <c r="V40" s="1" t="str">
         <f>IF(V$49&gt;=$A40,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W40" s="1" t="str">
         <f>IF(W$49&gt;=$A40,1,"")</f>
@@ -4657,9 +4721,9 @@
         <f>IF(C$49&gt;=$A41,1,"")</f>
         <v/>
       </c>
-      <c r="D41" s="1" t="str">
+      <c r="D41" s="1">
         <f>IF(D$49&gt;=$A41,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E41" s="1" t="str">
         <f>IF(E$49&gt;=$A41,1,"")</f>
@@ -4673,9 +4737,9 @@
         <f>IF(G$49&gt;=$A41,1,"")</f>
         <v/>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="1" t="str">
         <f>IF(H$49&gt;=$A41,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I41" s="1" t="str">
         <f>IF(I$49&gt;=$A41,1,"")</f>
@@ -4697,9 +4761,9 @@
         <f>IF(M$49&gt;=$A41,1,"")</f>
         <v/>
       </c>
-      <c r="N41" s="1" t="str">
+      <c r="N41" s="1">
         <f>IF(N$49&gt;=$A41,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O41" s="1" t="str">
         <f>IF(O$49&gt;=$A41,1,"")</f>
@@ -4729,9 +4793,9 @@
         <f>IF(U$49&gt;=$A41,1,"")</f>
         <v/>
       </c>
-      <c r="V41" s="1">
+      <c r="V41" s="1" t="str">
         <f>IF(V$49&gt;=$A41,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W41" s="1" t="str">
         <f>IF(W$49&gt;=$A41,1,"")</f>
@@ -4818,9 +4882,9 @@
         <f>IF(C$49&gt;=$A42,1,"")</f>
         <v/>
       </c>
-      <c r="D42" s="1" t="str">
+      <c r="D42" s="1">
         <f>IF(D$49&gt;=$A42,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="str">
         <f>IF(E$49&gt;=$A42,1,"")</f>
@@ -4834,9 +4898,9 @@
         <f>IF(G$49&gt;=$A42,1,"")</f>
         <v/>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="1" t="str">
         <f>IF(H$49&gt;=$A42,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I42" s="1" t="str">
         <f>IF(I$49&gt;=$A42,1,"")</f>
@@ -4858,9 +4922,9 @@
         <f>IF(M$49&gt;=$A42,1,"")</f>
         <v/>
       </c>
-      <c r="N42" s="1" t="str">
+      <c r="N42" s="1">
         <f>IF(N$49&gt;=$A42,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O42" s="1" t="str">
         <f>IF(O$49&gt;=$A42,1,"")</f>
@@ -4890,9 +4954,9 @@
         <f>IF(U$49&gt;=$A42,1,"")</f>
         <v/>
       </c>
-      <c r="V42" s="1">
+      <c r="V42" s="1" t="str">
         <f>IF(V$49&gt;=$A42,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W42" s="1" t="str">
         <f>IF(W$49&gt;=$A42,1,"")</f>
@@ -4979,9 +5043,9 @@
         <f>IF(C$49&gt;=$A43,1,"")</f>
         <v/>
       </c>
-      <c r="D43" s="1" t="str">
+      <c r="D43" s="1">
         <f>IF(D$49&gt;=$A43,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>IF(E$49&gt;=$A43,1,"")</f>
@@ -4995,9 +5059,9 @@
         <f>IF(G$49&gt;=$A43,1,"")</f>
         <v/>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="1" t="str">
         <f>IF(H$49&gt;=$A43,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I43" s="1" t="str">
         <f>IF(I$49&gt;=$A43,1,"")</f>
@@ -5019,9 +5083,9 @@
         <f>IF(M$49&gt;=$A43,1,"")</f>
         <v/>
       </c>
-      <c r="N43" s="1" t="str">
+      <c r="N43" s="1">
         <f>IF(N$49&gt;=$A43,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O43" s="1" t="str">
         <f>IF(O$49&gt;=$A43,1,"")</f>
@@ -5051,9 +5115,9 @@
         <f>IF(U$49&gt;=$A43,1,"")</f>
         <v/>
       </c>
-      <c r="V43" s="1">
+      <c r="V43" s="1" t="str">
         <f>IF(V$49&gt;=$A43,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W43" s="1" t="str">
         <f>IF(W$49&gt;=$A43,1,"")</f>
@@ -5132,9 +5196,9 @@
       <c r="A44" s="1">
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="str">
+      <c r="B44" s="1">
         <f>IF(B$49&gt;=$A44,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="str">
         <f>IF(C$49&gt;=$A44,1,"")</f>
@@ -5156,9 +5220,9 @@
         <f>IF(G$49&gt;=$A44,1,"")</f>
         <v/>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="1" t="str">
         <f>IF(H$49&gt;=$A44,1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I44" s="1" t="str">
         <f>IF(I$49&gt;=$A44,1,"")</f>
@@ -5180,9 +5244,9 @@
         <f>IF(M$49&gt;=$A44,1,"")</f>
         <v/>
       </c>
-      <c r="N44" s="1" t="str">
+      <c r="N44" s="1">
         <f>IF(N$49&gt;=$A44,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O44" s="1" t="str">
         <f>IF(O$49&gt;=$A44,1,"")</f>
@@ -5220,9 +5284,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="X44" s="1">
+      <c r="X44" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Y44" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5293,9 +5357,9 @@
       <c r="A45" s="1">
         <v>4</v>
       </c>
-      <c r="B45" s="1" t="str">
+      <c r="B45" s="1">
         <f t="shared" ref="B45:Q47" si="7">IF(B$49&gt;=$A45,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C45" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5317,9 +5381,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I45" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5341,9 +5405,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N45" s="1" t="str">
+      <c r="N45" s="1">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O45" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5381,9 +5445,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="X45" s="1">
+      <c r="X45" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Y45" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5454,9 +5518,9 @@
       <c r="A46" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="1" t="str">
+      <c r="B46" s="1">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5478,9 +5542,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I46" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5502,9 +5566,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N46" s="1" t="str">
+      <c r="N46" s="1">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O46" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5542,9 +5606,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="X46" s="1">
+      <c r="X46" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Y46" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5615,9 +5679,9 @@
       <c r="A47" s="1">
         <v>2</v>
       </c>
-      <c r="B47" s="1" t="str">
+      <c r="B47" s="1">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C47" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5639,9 +5703,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I47" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5663,9 +5727,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N47" s="1" t="str">
+      <c r="N47" s="1">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O47" s="1" t="str">
         <f t="shared" si="7"/>
@@ -5703,9 +5767,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="X47" s="1">
+      <c r="X47" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Y47" s="1" t="str">
         <f t="shared" si="6"/>
@@ -5776,9 +5840,9 @@
       <c r="A48" s="1">
         <v>1</v>
       </c>
-      <c r="B48" s="1" t="str">
+      <c r="B48" s="1">
         <f>IF(B$49&gt;=$A48,1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C48" s="1" t="str">
         <f t="shared" ref="C48:AN48" si="8">IF(C$49&gt;=$A48,1,"")</f>
@@ -5808,25 +5872,25 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J48" s="1" t="str">
+      <c r="J48" s="1">
         <f t="shared" si="8"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K48" s="1" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L48" s="1" t="str">
+      <c r="L48" s="1">
         <f t="shared" si="8"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M48" s="1" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N48" s="1" t="str">
+      <c r="N48" s="1">
         <f t="shared" si="8"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O48" s="1" t="str">
         <f t="shared" si="8"/>
@@ -5864,9 +5928,9 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X48" s="1">
+      <c r="X48" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Y48" s="1" t="str">
         <f t="shared" si="8"/>
@@ -5935,10 +5999,12 @@
     </row>
     <row r="49" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4">
+        <v>5</v>
+      </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4">
@@ -5946,14 +6012,20 @@
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4">
+        <v>1</v>
+      </c>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4">
         <v>16</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4">
         <v>16</v>
@@ -5968,12 +6040,10 @@
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="W49" s="4"/>
-      <c r="X49" s="4">
-        <v>5</v>
-      </c>
+      <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
